--- a/Code/Results/Cases/Case_5_78/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_78/res_line/pl_mw.xlsx
@@ -421,19 +421,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.623200906877685</v>
+        <v>1.865433692364718</v>
       </c>
       <c r="C2">
-        <v>0.450952345197777</v>
+        <v>0.1129504528406358</v>
       </c>
       <c r="D2">
-        <v>0.3834837759668375</v>
+        <v>0.258888863327627</v>
       </c>
       <c r="E2">
-        <v>0.03945863753165457</v>
+        <v>0.05888425167060085</v>
       </c>
       <c r="F2">
-        <v>6.667172538811855</v>
+        <v>4.166620448711853</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -451,10 +451,10 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.1484422319293159</v>
+        <v>0.1950833067680477</v>
       </c>
       <c r="M2">
-        <v>0.4333943384616674</v>
+        <v>0.3646298907252614</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,19 +468,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.267500130350015</v>
+        <v>1.801585411290432</v>
       </c>
       <c r="C3">
-        <v>0.3878666988927648</v>
+        <v>0.09772304808035415</v>
       </c>
       <c r="D3">
-        <v>0.3473779293444039</v>
+        <v>0.2485202626128284</v>
       </c>
       <c r="E3">
-        <v>0.03798285487446607</v>
+        <v>0.05833157205368822</v>
       </c>
       <c r="F3">
-        <v>5.911087940819044</v>
+        <v>3.966901955159869</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.1343824969784677</v>
+        <v>0.1928430019437499</v>
       </c>
       <c r="M3">
-        <v>0.3777018678811572</v>
+        <v>0.3549506182449917</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,19 +515,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.055756333689999</v>
+        <v>1.764192650805796</v>
       </c>
       <c r="C4">
-        <v>0.3500957157012863</v>
+        <v>0.08840518672499798</v>
       </c>
       <c r="D4">
-        <v>0.3257538103518982</v>
+        <v>0.2421479892456233</v>
       </c>
       <c r="E4">
-        <v>0.03709610308832545</v>
+        <v>0.05797938699961713</v>
       </c>
       <c r="F4">
-        <v>5.458721391583424</v>
+        <v>3.845285543863696</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -545,10 +545,10 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.1260442848327443</v>
+        <v>0.1915707671166516</v>
       </c>
       <c r="M4">
-        <v>0.3445751234940886</v>
+        <v>0.3493223301951076</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,19 +562,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.970924186607931</v>
+        <v>1.749407672288555</v>
       </c>
       <c r="C5">
-        <v>0.3349022153735461</v>
+        <v>0.08461533282638811</v>
       </c>
       <c r="D5">
-        <v>0.3170567020989381</v>
+        <v>0.2395492152176359</v>
       </c>
       <c r="E5">
-        <v>0.03673816282822417</v>
+        <v>0.0578326006483435</v>
       </c>
       <c r="F5">
-        <v>5.276931303223392</v>
+        <v>3.79597220135031</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -592,10 +592,10 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.1227125430534954</v>
+        <v>0.1910782396039536</v>
       </c>
       <c r="M5">
-        <v>0.3313109119043673</v>
+        <v>0.3471075890278996</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,19 +609,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.956919814865103</v>
+        <v>1.746979923001106</v>
       </c>
       <c r="C6">
-        <v>0.33239014732942</v>
+        <v>0.08398644658907983</v>
       </c>
       <c r="D6">
-        <v>0.3156188896684</v>
+        <v>0.2391175531496259</v>
       </c>
       <c r="E6">
-        <v>0.03667889447011463</v>
+        <v>0.05780802833918386</v>
       </c>
       <c r="F6">
-        <v>5.246887608468001</v>
+        <v>3.787798403158774</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -639,10 +639,10 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.1221630892266035</v>
+        <v>0.1909980194217482</v>
       </c>
       <c r="M6">
-        <v>0.3291216945793707</v>
+        <v>0.346744584658488</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,19 +656,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.05460663765416</v>
+        <v>1.763991424786354</v>
       </c>
       <c r="C7">
-        <v>0.3498900614888498</v>
+        <v>0.08835404706132977</v>
       </c>
       <c r="D7">
-        <v>0.3256360804839318</v>
+        <v>0.2421129501581305</v>
       </c>
       <c r="E7">
-        <v>0.03709126373128013</v>
+        <v>0.05797742067282519</v>
       </c>
       <c r="F7">
-        <v>5.456259908431235</v>
+        <v>3.844619500044587</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -686,10 +686,10 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.125999093828554</v>
+        <v>0.1915640198551927</v>
       </c>
       <c r="M7">
-        <v>0.3443953270002424</v>
+        <v>0.3492921426645523</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,19 +703,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.499033544075871</v>
+        <v>1.843041607641339</v>
       </c>
       <c r="C8">
-        <v>0.4289722453027878</v>
+        <v>0.107692977405776</v>
       </c>
       <c r="D8">
-        <v>0.3709072510712446</v>
+        <v>0.2553146713279091</v>
       </c>
       <c r="E8">
-        <v>0.03894482655000853</v>
+        <v>0.0586963279634739</v>
       </c>
       <c r="F8">
-        <v>6.403734908822088</v>
+        <v>4.097542649461587</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -733,10 +733,10 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.1435282703404468</v>
+        <v>0.1942893658412714</v>
       </c>
       <c r="M8">
-        <v>0.4139483832869928</v>
+        <v>0.3612269279132718</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,19 +750,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.434788042608602</v>
+        <v>2.012543560456777</v>
       </c>
       <c r="C9">
-        <v>0.5940039652932114</v>
+        <v>0.1459051811710026</v>
       </c>
       <c r="D9">
-        <v>0.465154435494668</v>
+        <v>0.2811815259301511</v>
       </c>
       <c r="E9">
-        <v>0.04281090762537909</v>
+        <v>0.06000607316526796</v>
       </c>
       <c r="F9">
-        <v>8.378321144443561</v>
+        <v>4.601939369511399</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -780,10 +780,10 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.1806485510311759</v>
+        <v>0.2004570099458078</v>
       </c>
       <c r="M9">
-        <v>0.5605635532159425</v>
+        <v>0.3871463492379448</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,19 +797,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.180246385047894</v>
+        <v>2.14609497846385</v>
       </c>
       <c r="C10">
-        <v>0.7251557330378091</v>
+        <v>0.1742087125239209</v>
       </c>
       <c r="D10">
-        <v>0.539608816620671</v>
+        <v>0.300209204261165</v>
       </c>
       <c r="E10">
-        <v>0.04592340193629418</v>
+        <v>0.0609099359463654</v>
       </c>
       <c r="F10">
-        <v>9.936775987822642</v>
+        <v>4.97822721059373</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -827,10 +827,10 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.2102612831219091</v>
+        <v>0.2054959191078041</v>
       </c>
       <c r="M10">
-        <v>0.677378579929119</v>
+        <v>0.4077501761971263</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,19 +844,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.537200663589886</v>
+        <v>2.2088523383714</v>
       </c>
       <c r="C11">
-        <v>0.7880554357049903</v>
+        <v>0.187146311363648</v>
       </c>
       <c r="D11">
-        <v>0.5751304227056835</v>
+        <v>0.3088784807003719</v>
       </c>
       <c r="E11">
-        <v>0.04743641211241512</v>
+        <v>0.06130900693434493</v>
       </c>
       <c r="F11">
-        <v>10.67927788089668</v>
+        <v>5.150778118698383</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -874,10 +874,10 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.2244241883576734</v>
+        <v>0.2078997798863895</v>
       </c>
       <c r="M11">
-        <v>0.7332921825145888</v>
+        <v>0.4174686230511355</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.675479130093379</v>
+        <v>2.232908395317793</v>
       </c>
       <c r="C12">
-        <v>0.8124535835996198</v>
+        <v>0.1920553195003265</v>
       </c>
       <c r="D12">
-        <v>0.5888725932931038</v>
+        <v>0.3121638770567756</v>
       </c>
       <c r="E12">
-        <v>0.04802739155751601</v>
+        <v>0.06145843032015441</v>
       </c>
       <c r="F12">
-        <v>10.966312168446</v>
+        <v>5.216326338398233</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -921,10 +921,10 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.2299055491733952</v>
+        <v>0.2088262092430995</v>
       </c>
       <c r="M12">
-        <v>0.7549464218475492</v>
+        <v>0.4211989285676268</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,19 +938,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.645550365567942</v>
+        <v>2.227714492553275</v>
       </c>
       <c r="C13">
-        <v>0.8071711647161521</v>
+        <v>0.1909976258161521</v>
       </c>
       <c r="D13">
-        <v>0.5858990696132764</v>
+        <v>0.3114561862066694</v>
       </c>
       <c r="E13">
-        <v>0.04789923652188133</v>
+        <v>0.06142632405109594</v>
       </c>
       <c r="F13">
-        <v>10.90421459493064</v>
+        <v>5.202200006244027</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -968,10 +968,10 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.2287194483802892</v>
+        <v>0.2086259668896417</v>
       </c>
       <c r="M13">
-        <v>0.7502599190563615</v>
+        <v>0.420393303437244</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,19 +985,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.548511140911103</v>
+        <v>2.210825590847094</v>
       </c>
       <c r="C14">
-        <v>0.7900503363604514</v>
+        <v>0.1875499765051245</v>
       </c>
       <c r="D14">
-        <v>0.5762548260181291</v>
+        <v>0.3091487181375498</v>
       </c>
       <c r="E14">
-        <v>0.0474846442485668</v>
+        <v>0.06132133382535909</v>
       </c>
       <c r="F14">
-        <v>10.7027681395154</v>
+        <v>5.156166610150706</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1015,10 +1015,10 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.2248726551435425</v>
+        <v>0.2079756738221192</v>
       </c>
       <c r="M14">
-        <v>0.7350635219965085</v>
+        <v>0.4177745100974164</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,19 +1032,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.489494450541656</v>
+        <v>2.200518665624145</v>
       </c>
       <c r="C15">
-        <v>0.7796425733413628</v>
+        <v>0.1854394970390558</v>
       </c>
       <c r="D15">
-        <v>0.5703870944827258</v>
+        <v>0.3077356743565645</v>
       </c>
       <c r="E15">
-        <v>0.047233179810517</v>
+        <v>0.06125680470794226</v>
       </c>
       <c r="F15">
-        <v>10.58017446474611</v>
+        <v>5.127997048010911</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1062,10 +1062,10 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.2225323875929064</v>
+        <v>0.2075794549928958</v>
       </c>
       <c r="M15">
-        <v>0.7258206391398687</v>
+        <v>0.4161769664950725</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,19 +1079,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.157321558791239</v>
+        <v>2.142034221393772</v>
       </c>
       <c r="C16">
-        <v>0.7211194478937557</v>
+        <v>0.1733645359400384</v>
       </c>
       <c r="D16">
-        <v>0.5373249702705891</v>
+        <v>0.2996429683622068</v>
       </c>
       <c r="E16">
-        <v>0.04582680506487646</v>
+        <v>0.06088361596347047</v>
       </c>
       <c r="F16">
-        <v>9.889011386923954</v>
+        <v>4.966979060951985</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1109,10 +1109,10 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.2093511464566546</v>
+        <v>0.205341074858751</v>
       </c>
       <c r="M16">
-        <v>0.6737869735799578</v>
+        <v>0.4071220452936473</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,19 +1126,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.958467542192921</v>
+        <v>2.10667133383572</v>
       </c>
       <c r="C17">
-        <v>0.6861206365139481</v>
+        <v>0.1659734837247129</v>
       </c>
       <c r="D17">
-        <v>0.5175004159945047</v>
+        <v>0.2946822278969421</v>
       </c>
       <c r="E17">
-        <v>0.04499153750751761</v>
+        <v>0.0606516085460973</v>
       </c>
       <c r="F17">
-        <v>9.474279201031919</v>
+        <v>4.86855852520759</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1156,10 +1156,10 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.2014543458147813</v>
+        <v>0.2039965541800086</v>
       </c>
       <c r="M17">
-        <v>0.6426300755351022</v>
+        <v>0.4016559817493288</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,19 +1173,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.8457333501986</v>
+        <v>2.086519990484476</v>
       </c>
       <c r="C18">
-        <v>0.6662870119756406</v>
+        <v>0.1617281450170083</v>
       </c>
       <c r="D18">
-        <v>0.5062496202736781</v>
+        <v>0.2918301752712011</v>
       </c>
       <c r="E18">
-        <v>0.04451996520418389</v>
+        <v>0.06051702237579137</v>
       </c>
       <c r="F18">
-        <v>9.238821833345327</v>
+        <v>4.812078568048378</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1203,10 +1203,10 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.1969761437680688</v>
+        <v>0.2032337237718735</v>
       </c>
       <c r="M18">
-        <v>0.6249648018470069</v>
+        <v>0.3985445551131903</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,19 +1220,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.80783055015894</v>
+        <v>2.079729368793608</v>
       </c>
       <c r="C19">
-        <v>0.6596195593037351</v>
+        <v>0.1602917157977686</v>
       </c>
       <c r="D19">
-        <v>0.5024648941768532</v>
+        <v>0.29086471336268</v>
       </c>
       <c r="E19">
-        <v>0.04436170939270045</v>
+        <v>0.06047125640474893</v>
       </c>
       <c r="F19">
-        <v>9.159601393883975</v>
+        <v>4.792977293862293</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1250,10 +1250,10 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.1954703494296979</v>
+        <v>0.2029772437076218</v>
       </c>
       <c r="M19">
-        <v>0.6190252485470253</v>
+        <v>0.3974966498716199</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,19 +1267,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.979462421700646</v>
+        <v>2.110416247767773</v>
       </c>
       <c r="C20">
-        <v>0.6898148550579322</v>
+        <v>0.1667596673644027</v>
       </c>
       <c r="D20">
-        <v>0.5195947121555093</v>
+        <v>0.2952101752154022</v>
       </c>
       <c r="E20">
-        <v>0.04507951043096048</v>
+        <v>0.06067642397072648</v>
       </c>
       <c r="F20">
-        <v>9.518101887681922</v>
+        <v>4.87902214974136</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1297,10 +1297,10 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.2022882432291055</v>
+        <v>0.2041385931354398</v>
       </c>
       <c r="M20">
-        <v>0.6459198079069353</v>
+        <v>0.4022344859311673</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,19 +1314,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.576924710939068</v>
+        <v>2.215778342925319</v>
       </c>
       <c r="C21">
-        <v>0.795062387358854</v>
+        <v>0.188562361065209</v>
       </c>
       <c r="D21">
-        <v>0.5790792014902308</v>
+        <v>0.3098264040590664</v>
       </c>
       <c r="E21">
-        <v>0.04760589349445299</v>
+        <v>0.06135221767937349</v>
       </c>
       <c r="F21">
-        <v>10.76176937336572</v>
+        <v>5.169682044903084</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1344,10 +1344,10 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.2259991777955577</v>
+        <v>0.2081662419352455</v>
       </c>
       <c r="M21">
-        <v>0.7395132833292379</v>
+        <v>0.4185423488439639</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,19 +1361,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.985850446240363</v>
+        <v>2.286337404459232</v>
       </c>
       <c r="C22">
-        <v>0.8672964142746764</v>
+        <v>0.2028693429200246</v>
       </c>
       <c r="D22">
-        <v>0.6196842729940784</v>
+        <v>0.3193939772037311</v>
       </c>
       <c r="E22">
-        <v>0.04936477122774452</v>
+        <v>0.06178402237164859</v>
       </c>
       <c r="F22">
-        <v>11.60940320743214</v>
+        <v>5.360855604433368</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1391,10 +1391,10 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.2421958705439522</v>
+        <v>0.2108926587164603</v>
       </c>
       <c r="M22">
-        <v>0.8035362175418683</v>
+        <v>0.4294929498645033</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,19 +1408,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.76570191720225</v>
+        <v>2.248522241251578</v>
       </c>
       <c r="C23">
-        <v>0.828383977430434</v>
+        <v>0.1952278662006393</v>
       </c>
       <c r="D23">
-        <v>0.5978339132931012</v>
+        <v>0.3142860121295428</v>
       </c>
       <c r="E23">
-        <v>0.04841456458280691</v>
+        <v>0.06155444810960753</v>
       </c>
       <c r="F23">
-        <v>11.15341913791599</v>
+        <v>5.258708865385302</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1438,10 +1438,10 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.2334801766416064</v>
+        <v>0.2094288778196898</v>
       </c>
       <c r="M23">
-        <v>0.7690732133533587</v>
+        <v>0.4236214996044652</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,19 +1455,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.969965724802478</v>
+        <v>2.108722614076441</v>
       </c>
       <c r="C24">
-        <v>0.6881438111287537</v>
+        <v>0.166404221735263</v>
       </c>
       <c r="D24">
-        <v>0.5186474281103699</v>
+        <v>0.2949714904542304</v>
       </c>
       <c r="E24">
-        <v>0.04503971127346684</v>
+        <v>0.06066520866462977</v>
       </c>
       <c r="F24">
-        <v>9.498280452035772</v>
+        <v>4.874291223958636</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1485,10 +1485,10 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.2019110471597401</v>
+        <v>0.2040743457077951</v>
       </c>
       <c r="M24">
-        <v>0.6444317557793156</v>
+        <v>0.401972847396884</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,19 +1502,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.173006480149638</v>
+        <v>1.965118975825874</v>
       </c>
       <c r="C25">
-        <v>0.5479364778057345</v>
+        <v>0.1355314440097288</v>
       </c>
       <c r="D25">
-        <v>0.4388963552606668</v>
+        <v>0.2741824241956436</v>
       </c>
       <c r="E25">
-        <v>0.04172820583219083</v>
+        <v>0.05966219706084352</v>
       </c>
       <c r="F25">
-        <v>7.828220969566814</v>
+        <v>4.464526573961876</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1532,10 +1532,10 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.1702498609431231</v>
+        <v>0.1986997894114992</v>
       </c>
       <c r="M25">
-        <v>0.5195375884758491</v>
+        <v>0.3798623891582054</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_5_78/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_78/res_line/pl_mw.xlsx
@@ -421,19 +421,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.865433692364718</v>
+        <v>2.623200906877855</v>
       </c>
       <c r="C2">
-        <v>0.1129504528406358</v>
+        <v>0.4509523451974076</v>
       </c>
       <c r="D2">
-        <v>0.258888863327627</v>
+        <v>0.3834837759666243</v>
       </c>
       <c r="E2">
-        <v>0.05888425167060085</v>
+        <v>0.03945863753173429</v>
       </c>
       <c r="F2">
-        <v>4.166620448711853</v>
+        <v>6.667172538811826</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -451,10 +451,10 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.1950833067680477</v>
+        <v>0.1484422319290957</v>
       </c>
       <c r="M2">
-        <v>0.3646298907252614</v>
+        <v>0.4333943384616674</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,19 +468,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.801585411290432</v>
+        <v>2.267500130349845</v>
       </c>
       <c r="C3">
-        <v>0.09772304808035415</v>
+        <v>0.3878666988926796</v>
       </c>
       <c r="D3">
-        <v>0.2485202626128284</v>
+        <v>0.3473779293444181</v>
       </c>
       <c r="E3">
-        <v>0.05833157205368822</v>
+        <v>0.03798285487448183</v>
       </c>
       <c r="F3">
-        <v>3.966901955159869</v>
+        <v>5.911087940818987</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.1928430019437499</v>
+        <v>0.1343824969786382</v>
       </c>
       <c r="M3">
-        <v>0.3549506182449917</v>
+        <v>0.3777018678811714</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,19 +515,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.764192650805796</v>
+        <v>2.055756333689999</v>
       </c>
       <c r="C4">
-        <v>0.08840518672499798</v>
+        <v>0.3500957157014852</v>
       </c>
       <c r="D4">
-        <v>0.2421479892456233</v>
+        <v>0.3257538103518556</v>
       </c>
       <c r="E4">
-        <v>0.05797938699961713</v>
+        <v>0.03709610308828992</v>
       </c>
       <c r="F4">
-        <v>3.845285543863696</v>
+        <v>5.458721391583481</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -545,10 +545,10 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.1915707671166516</v>
+        <v>0.1260442848328935</v>
       </c>
       <c r="M4">
-        <v>0.3493223301951076</v>
+        <v>0.3445751234940886</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,19 +562,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.749407672288555</v>
+        <v>1.970924186607931</v>
       </c>
       <c r="C5">
-        <v>0.08461533282638811</v>
+        <v>0.3349022153733188</v>
       </c>
       <c r="D5">
-        <v>0.2395492152176359</v>
+        <v>0.3170567020990944</v>
       </c>
       <c r="E5">
-        <v>0.0578326006483435</v>
+        <v>0.03673816282818465</v>
       </c>
       <c r="F5">
-        <v>3.79597220135031</v>
+        <v>5.276931303223336</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -592,10 +592,10 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.1910782396039536</v>
+        <v>0.1227125430535096</v>
       </c>
       <c r="M5">
-        <v>0.3471075890278996</v>
+        <v>0.3313109119043887</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,19 +609,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.746979923001106</v>
+        <v>1.956919814865216</v>
       </c>
       <c r="C6">
-        <v>0.08398644658907983</v>
+        <v>0.3323901473298179</v>
       </c>
       <c r="D6">
-        <v>0.2391175531496259</v>
+        <v>0.3156188896680874</v>
       </c>
       <c r="E6">
-        <v>0.05780802833918386</v>
+        <v>0.03667889447019679</v>
       </c>
       <c r="F6">
-        <v>3.787798403158774</v>
+        <v>5.246887608468086</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -639,10 +639,10 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.1909980194217482</v>
+        <v>0.1221630892266461</v>
       </c>
       <c r="M6">
-        <v>0.346744584658488</v>
+        <v>0.3291216945793565</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,19 +656,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.763991424786354</v>
+        <v>2.054606637653876</v>
       </c>
       <c r="C7">
-        <v>0.08835404706132977</v>
+        <v>0.3498900614878835</v>
       </c>
       <c r="D7">
-        <v>0.2421129501581305</v>
+        <v>0.3256360804838465</v>
       </c>
       <c r="E7">
-        <v>0.05797742067282519</v>
+        <v>0.03709126373128235</v>
       </c>
       <c r="F7">
-        <v>3.844619500044587</v>
+        <v>5.456259908431292</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -686,10 +686,10 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.1915640198551927</v>
+        <v>0.1259990938284901</v>
       </c>
       <c r="M7">
-        <v>0.3492921426645523</v>
+        <v>0.3443953270002567</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,19 +703,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.843041607641339</v>
+        <v>2.499033544075985</v>
       </c>
       <c r="C8">
-        <v>0.107692977405776</v>
+        <v>0.4289722453031004</v>
       </c>
       <c r="D8">
-        <v>0.2553146713279091</v>
+        <v>0.370907251071003</v>
       </c>
       <c r="E8">
-        <v>0.0586963279634739</v>
+        <v>0.03894482654999654</v>
       </c>
       <c r="F8">
-        <v>4.097542649461587</v>
+        <v>6.403734908822088</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -733,10 +733,10 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.1942893658412714</v>
+        <v>0.1435282703405747</v>
       </c>
       <c r="M8">
-        <v>0.3612269279132718</v>
+        <v>0.413948383287007</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,19 +750,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.012543560456777</v>
+        <v>3.434788042608261</v>
       </c>
       <c r="C9">
-        <v>0.1459051811710026</v>
+        <v>0.5940039652927567</v>
       </c>
       <c r="D9">
-        <v>0.2811815259301511</v>
+        <v>0.4651544354946253</v>
       </c>
       <c r="E9">
-        <v>0.06000607316526796</v>
+        <v>0.04281090762534268</v>
       </c>
       <c r="F9">
-        <v>4.601939369511399</v>
+        <v>8.378321144443674</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -780,10 +780,10 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.2004570099458078</v>
+        <v>0.1806485510311049</v>
       </c>
       <c r="M9">
-        <v>0.3871463492379448</v>
+        <v>0.5605635532159567</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,19 +797,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.14609497846385</v>
+        <v>4.180246385048292</v>
       </c>
       <c r="C10">
-        <v>0.1742087125239209</v>
+        <v>0.725155733038747</v>
       </c>
       <c r="D10">
-        <v>0.300209204261165</v>
+        <v>0.5396088166207278</v>
       </c>
       <c r="E10">
-        <v>0.0609099359463654</v>
+        <v>0.04592340193627598</v>
       </c>
       <c r="F10">
-        <v>4.97822721059373</v>
+        <v>9.936775987822529</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -827,10 +827,10 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.2054959191078041</v>
+        <v>0.2102612831219091</v>
       </c>
       <c r="M10">
-        <v>0.4077501761971263</v>
+        <v>0.6773785799291545</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,19 +844,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.2088523383714</v>
+        <v>4.537200663589715</v>
       </c>
       <c r="C11">
-        <v>0.187146311363648</v>
+        <v>0.7880554357040808</v>
       </c>
       <c r="D11">
-        <v>0.3088784807003719</v>
+        <v>0.5751304227056835</v>
       </c>
       <c r="E11">
-        <v>0.06130900693434493</v>
+        <v>0.04743641211245997</v>
       </c>
       <c r="F11">
-        <v>5.150778118698383</v>
+        <v>10.67927788089673</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -874,10 +874,10 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.2078997798863895</v>
+        <v>0.2244241883575882</v>
       </c>
       <c r="M11">
-        <v>0.4174686230511355</v>
+        <v>0.7332921825145746</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.232908395317793</v>
+        <v>4.675479130093208</v>
       </c>
       <c r="C12">
-        <v>0.1920553195003265</v>
+        <v>0.8124535835996198</v>
       </c>
       <c r="D12">
-        <v>0.3121638770567756</v>
+        <v>0.5888725932931038</v>
       </c>
       <c r="E12">
-        <v>0.06145843032015441</v>
+        <v>0.04802739155755686</v>
       </c>
       <c r="F12">
-        <v>5.216326338398233</v>
+        <v>10.96631216844605</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -921,10 +921,10 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.2088262092430995</v>
+        <v>0.2299055491732958</v>
       </c>
       <c r="M12">
-        <v>0.4211989285676268</v>
+        <v>0.754946421847535</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,19 +938,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.227714492553275</v>
+        <v>4.645550365568056</v>
       </c>
       <c r="C13">
-        <v>0.1909976258161521</v>
+        <v>0.8071711647153279</v>
       </c>
       <c r="D13">
-        <v>0.3114561862066694</v>
+        <v>0.5858990696133617</v>
       </c>
       <c r="E13">
-        <v>0.06142632405109594</v>
+        <v>0.047899236521872</v>
       </c>
       <c r="F13">
-        <v>5.202200006244027</v>
+        <v>10.90421459493052</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -968,10 +968,10 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.2086259668896417</v>
+        <v>0.2287194483802892</v>
       </c>
       <c r="M13">
-        <v>0.420393303437244</v>
+        <v>0.7502599190563117</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,19 +985,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.210825590847094</v>
+        <v>4.54851114091116</v>
       </c>
       <c r="C14">
-        <v>0.1875499765051245</v>
+        <v>0.790050336360963</v>
       </c>
       <c r="D14">
-        <v>0.3091487181375498</v>
+        <v>0.5762548260183564</v>
       </c>
       <c r="E14">
-        <v>0.06132133382535909</v>
+        <v>0.04748464424862897</v>
       </c>
       <c r="F14">
-        <v>5.156166610150706</v>
+        <v>10.70276813951534</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1015,10 +1015,10 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.2079756738221192</v>
+        <v>0.2248726551435567</v>
       </c>
       <c r="M14">
-        <v>0.4177745100974164</v>
+        <v>0.7350635219965085</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,19 +1032,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.200518665624145</v>
+        <v>4.489494450541599</v>
       </c>
       <c r="C15">
-        <v>0.1854394970390558</v>
+        <v>0.7796425733407943</v>
       </c>
       <c r="D15">
-        <v>0.3077356743565645</v>
+        <v>0.5703870944829532</v>
       </c>
       <c r="E15">
-        <v>0.06125680470794226</v>
+        <v>0.04723317981044994</v>
       </c>
       <c r="F15">
-        <v>5.127997048010911</v>
+        <v>10.58017446474616</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1062,10 +1062,10 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.2075794549928958</v>
+        <v>0.222532387592878</v>
       </c>
       <c r="M15">
-        <v>0.4161769664950725</v>
+        <v>0.72582063913989</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,19 +1079,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.142034221393772</v>
+        <v>4.157321558791296</v>
       </c>
       <c r="C16">
-        <v>0.1733645359400384</v>
+        <v>0.7211194478932725</v>
       </c>
       <c r="D16">
-        <v>0.2996429683622068</v>
+        <v>0.5373249702703617</v>
       </c>
       <c r="E16">
-        <v>0.06088361596347047</v>
+        <v>0.04582680506493597</v>
       </c>
       <c r="F16">
-        <v>4.966979060951985</v>
+        <v>9.889011386923897</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1109,10 +1109,10 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.205341074858751</v>
+        <v>0.2093511464564983</v>
       </c>
       <c r="M16">
-        <v>0.4071220452936473</v>
+        <v>0.6737869735799933</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,19 +1126,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.10667133383572</v>
+        <v>3.958467542193091</v>
       </c>
       <c r="C17">
-        <v>0.1659734837247129</v>
+        <v>0.6861206365139196</v>
       </c>
       <c r="D17">
-        <v>0.2946822278969421</v>
+        <v>0.5175004159944478</v>
       </c>
       <c r="E17">
-        <v>0.0606516085460973</v>
+        <v>0.04499153750755136</v>
       </c>
       <c r="F17">
-        <v>4.86855852520759</v>
+        <v>9.474279201032033</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1156,10 +1156,10 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.2039965541800086</v>
+        <v>0.2014543458146392</v>
       </c>
       <c r="M17">
-        <v>0.4016559817493288</v>
+        <v>0.6426300755351093</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,19 +1173,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.086519990484476</v>
+        <v>3.845733350198316</v>
       </c>
       <c r="C18">
-        <v>0.1617281450170083</v>
+        <v>0.6662870119756406</v>
       </c>
       <c r="D18">
-        <v>0.2918301752712011</v>
+        <v>0.506249620273735</v>
       </c>
       <c r="E18">
-        <v>0.06051702237579137</v>
+        <v>0.04451996520419499</v>
       </c>
       <c r="F18">
-        <v>4.812078568048378</v>
+        <v>9.238821833345241</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1203,10 +1203,10 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.2032337237718735</v>
+        <v>0.1969761437681257</v>
       </c>
       <c r="M18">
-        <v>0.3985445551131903</v>
+        <v>0.6249648018469571</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,19 +1220,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.079729368793608</v>
+        <v>3.80783055015911</v>
       </c>
       <c r="C19">
-        <v>0.1602917157977686</v>
+        <v>0.6596195593038203</v>
       </c>
       <c r="D19">
-        <v>0.29086471336268</v>
+        <v>0.5024648941771375</v>
       </c>
       <c r="E19">
-        <v>0.06047125640474893</v>
+        <v>0.0443617093927906</v>
       </c>
       <c r="F19">
-        <v>4.792977293862293</v>
+        <v>9.159601393883918</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1250,10 +1250,10 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.2029772437076218</v>
+        <v>0.195470349429641</v>
       </c>
       <c r="M19">
-        <v>0.3974966498716199</v>
+        <v>0.6190252485470396</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,19 +1267,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.110416247767773</v>
+        <v>3.979462421700646</v>
       </c>
       <c r="C20">
-        <v>0.1667596673644027</v>
+        <v>0.6898148550587848</v>
       </c>
       <c r="D20">
-        <v>0.2952101752154022</v>
+        <v>0.5195947121552535</v>
       </c>
       <c r="E20">
-        <v>0.06067642397072648</v>
+        <v>0.04507951043103775</v>
       </c>
       <c r="F20">
-        <v>4.87902214974136</v>
+        <v>9.518101887682036</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1297,10 +1297,10 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.2041385931354398</v>
+        <v>0.2022882432291055</v>
       </c>
       <c r="M20">
-        <v>0.4022344859311673</v>
+        <v>0.6459198079069282</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,19 +1314,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.215778342925319</v>
+        <v>4.576924710939181</v>
       </c>
       <c r="C21">
-        <v>0.188562361065209</v>
+        <v>0.7950623873588825</v>
       </c>
       <c r="D21">
-        <v>0.3098264040590664</v>
+        <v>0.5790792014904298</v>
       </c>
       <c r="E21">
-        <v>0.06135221767937349</v>
+        <v>0.0476058934943242</v>
       </c>
       <c r="F21">
-        <v>5.169682044903084</v>
+        <v>10.76176937336589</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1344,10 +1344,10 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.2081662419352455</v>
+        <v>0.2259991777954724</v>
       </c>
       <c r="M21">
-        <v>0.4185423488439639</v>
+        <v>0.7395132833291811</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,19 +1361,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.286337404459232</v>
+        <v>4.985850446240306</v>
       </c>
       <c r="C22">
-        <v>0.2028693429200246</v>
+        <v>0.8672964142737669</v>
       </c>
       <c r="D22">
-        <v>0.3193939772037311</v>
+        <v>0.6196842729941352</v>
       </c>
       <c r="E22">
-        <v>0.06178402237164859</v>
+        <v>0.04936477122769745</v>
       </c>
       <c r="F22">
-        <v>5.360855604433368</v>
+        <v>11.60940320743202</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1391,10 +1391,10 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.2108926587164603</v>
+        <v>0.2421958705440375</v>
       </c>
       <c r="M22">
-        <v>0.4294929498645033</v>
+        <v>0.8035362175418541</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,19 +1408,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.248522241251578</v>
+        <v>4.765701917202762</v>
       </c>
       <c r="C23">
-        <v>0.1952278662006393</v>
+        <v>0.8283839774309456</v>
       </c>
       <c r="D23">
-        <v>0.3142860121295428</v>
+        <v>0.5978339132930728</v>
       </c>
       <c r="E23">
-        <v>0.06155444810960753</v>
+        <v>0.04841456458286109</v>
       </c>
       <c r="F23">
-        <v>5.258708865385302</v>
+        <v>11.15341913791605</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1438,10 +1438,10 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.2094288778196898</v>
+        <v>0.2334801766415637</v>
       </c>
       <c r="M23">
-        <v>0.4236214996044652</v>
+        <v>0.7690732133533658</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,19 +1455,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.108722614076441</v>
+        <v>3.969965724802023</v>
       </c>
       <c r="C24">
-        <v>0.166404221735263</v>
+        <v>0.6881438111283273</v>
       </c>
       <c r="D24">
-        <v>0.2949714904542304</v>
+        <v>0.5186474281101709</v>
       </c>
       <c r="E24">
-        <v>0.06066520866462977</v>
+        <v>0.0450397112734251</v>
       </c>
       <c r="F24">
-        <v>4.874291223958636</v>
+        <v>9.498280452035658</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1485,10 +1485,10 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.2040743457077951</v>
+        <v>0.2019110471597259</v>
       </c>
       <c r="M24">
-        <v>0.401972847396884</v>
+        <v>0.644431755779344</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,19 +1502,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.965118975825874</v>
+        <v>3.173006480149695</v>
       </c>
       <c r="C25">
-        <v>0.1355314440097288</v>
+        <v>0.5479364778053082</v>
       </c>
       <c r="D25">
-        <v>0.2741824241956436</v>
+        <v>0.4388963552602547</v>
       </c>
       <c r="E25">
-        <v>0.05966219706084352</v>
+        <v>0.04172820583215175</v>
       </c>
       <c r="F25">
-        <v>4.464526573961876</v>
+        <v>7.8282209695669</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1532,10 +1532,10 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.1986997894114992</v>
+        <v>0.1702498609429739</v>
       </c>
       <c r="M25">
-        <v>0.3798623891582054</v>
+        <v>0.5195375884758633</v>
       </c>
       <c r="N25">
         <v>0</v>
